--- a/biology/Zoologie/Hylodes_heyeri/Hylodes_heyeri.xlsx
+++ b/biology/Zoologie/Hylodes_heyeri/Hylodes_heyeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylodes heyeri est une espèce d'amphibiens de la famille des Hylodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylodes heyeri est une espèce d'amphibiens de la famille des Hylodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique du Brésil. Elle se rencontre entre 100 et 1 000 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique du Brésil. Elle se rencontre entre 100 et 1 000 m d'altitude, :
 dans l'État de São Paulo à Eldorado et sur l'Ilha do Cardoso à Cananéia ;
 dans l'État de Paraná à Morretes.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 15 spécimens adultes mâles observés lors de la description originale mesurent entre 36,4 mm et 42,6 mm de longueur standard et le spécimen adulte femelle observé lors de la description originale mesure 45,0 mm de longueur standard[3].  Son dos est brun foncé et présente une ligne longitudinale s'étendant du museau jusqu'à la racine des membres antérieures. Sa gorge est gris argenté. Son ventre est gris foncé avec des marbrures brunes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 15 spécimens adultes mâles observés lors de la description originale mesurent entre 36,4 mm et 42,6 mm de longueur standard et le spécimen adulte femelle observé lors de la description originale mesure 45,0 mm de longueur standard.  Son dos est brun foncé et présente une ligne longitudinale s'étendant du museau jusqu'à la racine des membres antérieures. Sa gorge est gris argenté. Son ventre est gris foncé avec des marbrures brunes.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Ronald Heyer[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Ronald Heyer.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Haddad, Pombal &amp; Bastos, 1996 : A new species of Hylodes from the Atlantic Forest system in Brazil (Amphibia: Leptodactylidae). Copeia, vol. 1996, no 4, p. 965-969 (texte intégral).</t>
         </is>
